--- a/tools/ccb/ccb-cff-2023-03-01.xlsx
+++ b/tools/ccb/ccb-cff-2023-03-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/ccb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84376F9D-3411-264B-913C-AF0DA89BC8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A828599-02A1-6E4A-9682-E5B76454AEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22700" windowHeight="20520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="939">
   <si>
     <t>assessable</t>
   </si>
@@ -2907,28 +2907,6 @@
 https://ccb.belgium.be</t>
   </si>
   <si>
-    <t>No Process documentation or not formally approved by management.
-Standard process does not exist.</t>
-  </si>
-  <si>
-    <t>Formally approved Process documentation exists but not reviewed in the previous 2 years.
-Ad-hoc process exists and is done informally.</t>
-  </si>
-  <si>
-    <t>Formally approved Process documentation exists, and exceptions are documented and approved. Documented &amp; approved exceptions &lt; 5% of the time.
-Formal process exists and is implemented. Evidence available for most activities. Less than 10% process exceptions.</t>
-  </si>
-  <si>
-    <t>Formally approved Process documentation exists, and exceptions are documented and approved. Documented &amp; approved exceptions &lt; 3% of the time.
-Formal process exists and is implemented. Evidence available for all activities. Detailed metrics of the process are captured and reported.
-Minimal target for metrics has been established. Less than 5% of process exceptions.</t>
-  </si>
-  <si>
-    <t>Formally approved Process documentation exists, and exceptions are documented and approved. Documented &amp; approved exceptions &lt; 0,5% of the time.
-Formal process exists and is implemented. Evidence available for all activities. Detailed metrics of the process are captured and reported.
-Minimal target for metrics has been established and continually improving. Less than 1% of process exceptions.</t>
-  </si>
-  <si>
     <t>framework_min_score</t>
   </si>
   <si>
@@ -3053,6 +3031,41 @@
   </si>
   <si>
     <t>essential - key measures</t>
+  </si>
+  <si>
+    <t>description-doc</t>
+  </si>
+  <si>
+    <t>Standard process does not exist.</t>
+  </si>
+  <si>
+    <t>No Process documentation or not formally approved by management.</t>
+  </si>
+  <si>
+    <t>Ad-hoc process exists and is done informally.</t>
+  </si>
+  <si>
+    <t>Formally approved Process documentation exists but not reviewed in the previous 2 years.</t>
+  </si>
+  <si>
+    <t>Formal process exists and is implemented. Evidence available for most activities. Less than 10% process exceptions.</t>
+  </si>
+  <si>
+    <t>Formally approved Process documentation exists, and exceptions are documented and approved. Documented &amp; approved exceptions &lt; 5% of the time.</t>
+  </si>
+  <si>
+    <t>Formal process exists and is implemented. Evidence available for all activities. Detailed metrics of the process are captured and reported.
+Minimal target for metrics has been established. Less than 5% of process exceptions.</t>
+  </si>
+  <si>
+    <t>Formally approved Process documentation exists, and exceptions are documented and approved. Documented &amp; approved exceptions &lt; 3% of the time.</t>
+  </si>
+  <si>
+    <t>Formal process exists and is implemented. Evidence available for all activities. Detailed metrics of the process are captured and reported.
+Minimal target for metrics has been established and continually improving. Less than 1% of process exceptions.</t>
+  </si>
+  <si>
+    <t>Formally approved Process documentation exists, and exceptions are documented and approved. Documented &amp; approved exceptions &lt; 0,5% of the time.</t>
   </si>
 </sst>
 </file>
@@ -3146,10 +3159,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3571,7 +3584,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -3579,7 +3592,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
@@ -4065,13 +4078,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D25" t="s">
         <v>67</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>68</v>
@@ -4973,13 +4986,13 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D80" t="s">
         <v>205</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>206</v>
@@ -4993,13 +5006,13 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D81" t="s">
         <v>207</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>34</v>
@@ -5151,13 +5164,13 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D91" t="s">
         <v>229</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>230</v>
@@ -5373,13 +5386,13 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D103" t="s">
         <v>262</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>263</v>
@@ -5393,13 +5406,13 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D104" t="s">
         <v>264</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>265</v>
@@ -5464,13 +5477,13 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D108" t="s">
         <v>274</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>275</v>
@@ -5484,13 +5497,13 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D109" t="s">
         <v>276</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>277</v>
@@ -5504,13 +5517,13 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D110" t="s">
         <v>278</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>279</v>
@@ -5524,13 +5537,13 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D111" t="s">
         <v>280</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>281</v>
@@ -5655,13 +5668,13 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D118" t="s">
         <v>297</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>298</v>
@@ -5675,13 +5688,13 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D119" t="s">
         <v>299</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>300</v>
@@ -5695,13 +5708,13 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D120" t="s">
         <v>301</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>302</v>
@@ -5715,13 +5728,13 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D121" t="s">
         <v>303</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>304</v>
@@ -5837,13 +5850,13 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>928</v>
-      </c>
-      <c r="D128" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>317</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>318</v>
@@ -6375,13 +6388,13 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D160" t="s">
         <v>395</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>396</v>
@@ -6573,13 +6586,13 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D172" t="s">
         <v>421</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>422</v>
@@ -6726,13 +6739,13 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D181" t="s">
         <v>442</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>443</v>
@@ -7228,13 +7241,13 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D210" t="s">
         <v>514</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>515</v>
@@ -7308,13 +7321,13 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D214" t="s">
         <v>525</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="G214" s="4" t="s">
         <v>526</v>
@@ -7328,13 +7341,13 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D215" t="s">
         <v>527</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>34</v>
@@ -7348,13 +7361,13 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D216" t="s">
         <v>528</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>34</v>
@@ -7464,13 +7477,13 @@
         <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D223" t="s">
         <v>542</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="G223" s="4" t="s">
         <v>543</v>
@@ -7595,13 +7608,13 @@
         <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D230" t="s">
         <v>558</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="G230" s="4" t="s">
         <v>559</v>
@@ -7793,13 +7806,13 @@
         <v>4</v>
       </c>
       <c r="C242" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D242" t="s">
         <v>586</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="G242" s="4" t="s">
         <v>587</v>
@@ -7875,13 +7888,13 @@
         <v>4</v>
       </c>
       <c r="C247" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D247" t="s">
         <v>597</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="G247" s="4" t="s">
         <v>598</v>
@@ -8062,13 +8075,13 @@
         <v>4</v>
       </c>
       <c r="C258" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D258" t="s">
         <v>621</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="G258" s="4" t="s">
         <v>622</v>
@@ -8235,13 +8248,13 @@
         <v>4</v>
       </c>
       <c r="C268" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="D268" t="s">
         <v>646</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="G268" s="4" t="s">
         <v>647</v>
@@ -9091,13 +9104,13 @@
         <v>4</v>
       </c>
       <c r="C321" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D321" t="s">
         <v>773</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="G321" s="4" t="s">
         <v>774</v>
@@ -9520,19 +9533,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8EE66F-5BF1-6F47-9F88-8D8C53839AC6}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="161.1640625" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.6640625" customWidth="1"/>
+    <col min="4" max="4" width="76.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>869</v>
       </c>
@@ -9542,19 +9556,25 @@
       <c r="C1" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>870</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C2" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9562,10 +9582,13 @@
         <v>871</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>931</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9573,10 +9596,13 @@
         <v>872</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+        <v>933</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9584,10 +9610,13 @@
         <v>873</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+        <v>935</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9595,7 +9624,10 @@
         <v>874</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>891</v>
+        <v>937</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>938</v>
       </c>
     </row>
   </sheetData>
@@ -9607,7 +9639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793A9884-A8FA-0245-8718-D92EEEA60D41}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -9653,26 +9685,26 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B5" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B6" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B7" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
   </sheetData>
